--- a/target/test-classes/cases_v6.xlsx
+++ b/target/test-classes/cases_v6.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>CaseId(用例编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>通过</t>
+  </si>
+  <si>
+    <t>Need code parameter</t>
+  </si>
+  <si>
+    <t>Need Password parameter</t>
   </si>
 </sst>
 </file>
@@ -1112,6 +1118,9 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1126,6 +1135,9 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1140,6 +1152,9 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1154,6 +1169,9 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1167,6 +1185,9 @@
       </c>
       <c r="D11" t="s">
         <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row ht="41.4" r="12" spans="1:5" x14ac:dyDescent="0.25">
